--- a/Version2/testcase.xlsx
+++ b/Version2/testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\College Material\CPR\Final Project\Tokenizing\Version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC2147B-6A21-4D02-B969-0E2BDBC9AA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4865633D-D96E-4D88-B66C-CA9E7DD33B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="3610" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Program</t>
   </si>
@@ -145,27 +145,26 @@
     <t>Version 2</t>
   </si>
   <si>
-    <t>1, 2</t>
-  </si>
-  <si>
-    <t>Bad selection!
-Which module to run?
-4 - Tokenizating
-0 - Finish
-Your selectiong</t>
-  </si>
-  <si>
-    <t>4 
+    <t xml:space="preserve">
 I,Am,Shamim</t>
   </si>
   <si>
-    <t>*** Start of Tokenizing Phrases Demo ***
-Type a few phrases separated by comma (q - to quit):
-I,Am,Shamim
+    <t>*** Start of Sentences Phrases Demo ***
+Type a few sentences separated by dot (q - to quit):
+Type a few sentences separated by dot (q - to quit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Phrase #1 is 'I'
 Phrase #2 is 'Am'
 Phrase #3 is 'Shamim'
-Type a few phrases separated by comma (q - to quit):</t>
+</t>
+  </si>
+  <si>
+    <t>Phrase #1 is 'Seneca'</t>
+  </si>
+  <si>
+    <t>Seneca</t>
   </si>
 </sst>
 </file>
@@ -512,6 +511,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,9 +561,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -865,36 +864,36 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
@@ -903,13 +902,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
@@ -918,38 +917,38 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="32"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" s="14" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -1016,13 +1015,13 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1031,13 +1030,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1046,38 +1045,38 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="32"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:7" s="14" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
@@ -1086,11 +1085,11 @@
       <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>33</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16" t="s">
@@ -1100,7 +1099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="145" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11" t="s">
@@ -1129,17 +1128,17 @@
         <v>16</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
